--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value227.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value227.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.966752331870059</v>
+        <v>1.243534922599792</v>
       </c>
       <c r="B1">
-        <v>0.9848899388401746</v>
+        <v>2.194370985031128</v>
       </c>
       <c r="C1">
-        <v>0.935603346330488</v>
+        <v>4.263675212860107</v>
       </c>
       <c r="D1">
-        <v>1.108861028873185</v>
+        <v>3.038837909698486</v>
       </c>
       <c r="E1">
-        <v>1.532924785533774</v>
+        <v>1.055611133575439</v>
       </c>
     </row>
   </sheetData>
